--- a/Daily/Forecast/Stationaritiy/Square Log-Price/NIKKEI.xlsx
+++ b/Daily/Forecast/Stationaritiy/Square Log-Price/NIKKEI.xlsx
@@ -417,13 +417,13 @@
         <v>2584</v>
       </c>
       <c r="C2">
-        <v>108.6857575634223</v>
+        <v>108.6892825250295</v>
       </c>
       <c r="D2">
-        <v>105.3815901630871</v>
+        <v>105.385087084843</v>
       </c>
       <c r="E2">
-        <v>111.9899249637574</v>
+        <v>111.9934779652161</v>
       </c>
       <c r="F2">
         <v>108.4810823886129</v>
@@ -437,13 +437,13 @@
         <v>2585</v>
       </c>
       <c r="C3">
-        <v>108.4860322663202</v>
+        <v>108.4807018366303</v>
       </c>
       <c r="D3">
-        <v>105.1824946240521</v>
+        <v>105.1771358083543</v>
       </c>
       <c r="E3">
-        <v>111.7895699085882</v>
+        <v>111.7842678649063</v>
       </c>
       <c r="F3">
         <v>108.4926204569121</v>
@@ -457,13 +457,13 @@
         <v>2586</v>
       </c>
       <c r="C4">
-        <v>108.4920892324714</v>
+        <v>108.49223999607</v>
       </c>
       <c r="D4">
-        <v>105.1891903812677</v>
+        <v>105.1893127393979</v>
       </c>
       <c r="E4">
-        <v>111.7949880836751</v>
+        <v>111.795167252742</v>
       </c>
       <c r="F4">
         <v>108.6085211868693</v>
@@ -477,13 +477,13 @@
         <v>2587</v>
       </c>
       <c r="C5">
-        <v>108.6051172202661</v>
+        <v>108.6081412245912</v>
       </c>
       <c r="D5">
-        <v>105.3028535758025</v>
+        <v>105.3058493683522</v>
       </c>
       <c r="E5">
-        <v>111.9073808647298</v>
+        <v>111.9104330808301</v>
       </c>
       <c r="F5">
         <v>108.4151048278815</v>
@@ -497,13 +497,13 @@
         <v>2588</v>
       </c>
       <c r="C6">
-        <v>108.4196344431644</v>
+        <v>108.4147237737942</v>
       </c>
       <c r="D6">
-        <v>105.1180007348355</v>
+        <v>105.1130615865915</v>
       </c>
       <c r="E6">
-        <v>111.7212681514932</v>
+        <v>111.7163859609969</v>
       </c>
       <c r="F6">
         <v>108.1105183521007</v>
@@ -517,13 +517,13 @@
         <v>2589</v>
       </c>
       <c r="C7">
-        <v>108.1181211851869</v>
+        <v>108.1101350767397</v>
       </c>
       <c r="D7">
-        <v>104.8171038403191</v>
+        <v>104.8090897542956</v>
       </c>
       <c r="E7">
-        <v>111.4191385300546</v>
+        <v>111.4111803991839</v>
       </c>
       <c r="F7">
         <v>108.0579788845146</v>
@@ -537,13 +537,13 @@
         <v>2590</v>
       </c>
       <c r="C8">
-        <v>108.0591605399397</v>
+        <v>108.0575947264972</v>
       </c>
       <c r="D8">
-        <v>104.758779708926</v>
+        <v>104.7571861117237</v>
       </c>
       <c r="E8">
-        <v>111.3595413709534</v>
+        <v>111.3580033412707</v>
       </c>
       <c r="F8">
         <v>107.9557170054649</v>
@@ -557,13 +557,13 @@
         <v>2591</v>
       </c>
       <c r="C9">
-        <v>107.9579975767963</v>
+        <v>107.9553366946669</v>
       </c>
       <c r="D9">
-        <v>104.6582511854914</v>
+        <v>104.6555627407312</v>
       </c>
       <c r="E9">
-        <v>111.2577439681013</v>
+        <v>111.2551106486026</v>
       </c>
       <c r="F9">
         <v>108.3706829994496</v>
@@ -577,13 +577,13 @@
         <v>2592</v>
       </c>
       <c r="C10">
-        <v>108.3596537950074</v>
+        <v>108.3703026747493</v>
       </c>
       <c r="D10">
-        <v>105.0605058644184</v>
+        <v>105.0711265770351</v>
       </c>
       <c r="E10">
-        <v>111.6588017255964</v>
+        <v>111.6694787724635</v>
       </c>
       <c r="F10">
         <v>108.3958539750734</v>
@@ -597,13 +597,13 @@
         <v>2593</v>
       </c>
       <c r="C11">
-        <v>108.3945610647297</v>
+        <v>108.3954737097153</v>
       </c>
       <c r="D11">
-        <v>105.096049056519</v>
+        <v>105.0969336978401</v>
       </c>
       <c r="E11">
-        <v>111.6930730729404</v>
+        <v>111.6940137215905</v>
       </c>
       <c r="F11">
         <v>108.3675784947857</v>
@@ -617,13 +617,13 @@
         <v>2594</v>
       </c>
       <c r="C12">
-        <v>108.3679109088473</v>
+        <v>108.3671986285476</v>
       </c>
       <c r="D12">
-        <v>105.0700345737411</v>
+        <v>105.0692943079411</v>
       </c>
       <c r="E12">
-        <v>111.6657872439534</v>
+        <v>111.6651029491541</v>
       </c>
       <c r="F12">
         <v>108.718873572834</v>
@@ -637,13 +637,13 @@
         <v>2595</v>
       </c>
       <c r="C13">
-        <v>108.7094436074942</v>
+        <v>108.7184935605565</v>
       </c>
       <c r="D13">
-        <v>105.4121751485316</v>
+        <v>105.4211969826417</v>
       </c>
       <c r="E13">
-        <v>112.0067120664569</v>
+        <v>112.0157901384713</v>
       </c>
       <c r="F13">
         <v>108.5135804325106</v>
@@ -657,13 +657,13 @@
         <v>2596</v>
       </c>
       <c r="C14">
-        <v>108.5183385115657</v>
+        <v>108.5131992072403</v>
       </c>
       <c r="D14">
-        <v>105.2216965503953</v>
+        <v>105.216528320477</v>
       </c>
       <c r="E14">
-        <v>111.8149804727361</v>
+        <v>111.8098700940036</v>
       </c>
       <c r="F14">
         <v>108.4612716109954</v>
@@ -677,13 +677,13 @@
         <v>2597</v>
       </c>
       <c r="C15">
-        <v>108.4623995962666</v>
+        <v>108.4608791920177</v>
       </c>
       <c r="D15">
-        <v>105.1663916539746</v>
+        <v>105.1648423605186</v>
       </c>
       <c r="E15">
-        <v>111.7584075385586</v>
+        <v>111.7569160235167</v>
       </c>
       <c r="F15">
         <v>108.1051132813722</v>
@@ -697,13 +697,13 @@
         <v>2598</v>
       </c>
       <c r="C16">
-        <v>108.1140499441368</v>
+        <v>108.1047331699293</v>
       </c>
       <c r="D16">
-        <v>104.818647783738</v>
+        <v>104.8093024478415</v>
       </c>
       <c r="E16">
-        <v>111.4094521045357</v>
+        <v>111.4001638920171</v>
       </c>
       <c r="F16">
         <v>107.8597781666008</v>
@@ -717,13 +717,13 @@
         <v>2599</v>
       </c>
       <c r="C17">
-        <v>107.8659048945524</v>
+        <v>107.8593914835443</v>
       </c>
       <c r="D17">
-        <v>104.5711222579511</v>
+        <v>104.5645812746738</v>
       </c>
       <c r="E17">
-        <v>111.1606875311537</v>
+        <v>111.1542016924147</v>
       </c>
       <c r="F17">
         <v>107.7320014701546</v>
@@ -737,13 +737,13 @@
         <v>2600</v>
       </c>
       <c r="C18">
-        <v>107.7350330529132</v>
+        <v>107.7316213424977</v>
       </c>
       <c r="D18">
-        <v>104.4408800760964</v>
+        <v>104.4374412288752</v>
       </c>
       <c r="E18">
-        <v>111.0291860297299</v>
+        <v>111.0258014561201</v>
       </c>
       <c r="F18">
         <v>107.7409249010028</v>
@@ -757,13 +757,13 @@
         <v>2601</v>
       </c>
       <c r="C19">
-        <v>107.740414783703</v>
+        <v>107.7405433497375</v>
       </c>
       <c r="D19">
-        <v>104.4468951074257</v>
+        <v>104.4469965173292</v>
       </c>
       <c r="E19">
-        <v>111.0339344599802</v>
+        <v>111.0340901821457</v>
       </c>
       <c r="F19">
         <v>107.5729376827511</v>
@@ -777,13 +777,13 @@
         <v>2602</v>
       </c>
       <c r="C20">
-        <v>107.5768241897517</v>
+        <v>107.5725575011373</v>
       </c>
       <c r="D20">
-        <v>104.2839311455698</v>
+        <v>104.2796373266709</v>
       </c>
       <c r="E20">
-        <v>110.8697172339337</v>
+        <v>110.8654776756036</v>
       </c>
       <c r="F20">
         <v>107.8795927060747</v>
@@ -797,13 +797,13 @@
         <v>2603</v>
       </c>
       <c r="C21">
-        <v>107.8714743326079</v>
+        <v>107.8792125940544</v>
       </c>
       <c r="D21">
-        <v>104.5791933456698</v>
+        <v>104.5869038858089</v>
       </c>
       <c r="E21">
-        <v>111.163755319546</v>
+        <v>111.1715213023</v>
       </c>
       <c r="F21">
         <v>107.8615993231237</v>
@@ -817,13 +817,13 @@
         <v>2604</v>
       </c>
       <c r="C22">
-        <v>107.8614796334625</v>
+        <v>107.8612141111971</v>
       </c>
       <c r="D22">
-        <v>104.5698307326593</v>
+        <v>104.5695375099151</v>
       </c>
       <c r="E22">
-        <v>111.1531285342658</v>
+        <v>111.1528907124791</v>
       </c>
       <c r="F22">
         <v>107.9273185684314</v>
@@ -837,13 +837,13 @@
         <v>2605</v>
       </c>
       <c r="C23">
-        <v>107.9252702154231</v>
+        <v>107.926938494479</v>
       </c>
       <c r="D23">
-        <v>104.6342523191342</v>
+        <v>104.6358928245439</v>
       </c>
       <c r="E23">
-        <v>111.216288111712</v>
+        <v>111.217984164414</v>
       </c>
       <c r="F23">
         <v>108.183033040691</v>
@@ -857,13 +857,13 @@
         <v>2606</v>
       </c>
       <c r="C24">
-        <v>108.1760857365346</v>
+        <v>108.1826511723351</v>
       </c>
       <c r="D24">
-        <v>104.8856844493202</v>
+        <v>104.8922222996381</v>
       </c>
       <c r="E24">
-        <v>111.466487023749</v>
+        <v>111.473080045032</v>
       </c>
       <c r="F24">
         <v>107.9251628839365</v>
@@ -877,13 +877,13 @@
         <v>2607</v>
       </c>
       <c r="C25">
-        <v>107.9312878276192</v>
+        <v>107.9247832290633</v>
       </c>
       <c r="D25">
-        <v>104.6415035224332</v>
+        <v>104.6349706561382</v>
       </c>
       <c r="E25">
-        <v>111.2210721328051</v>
+        <v>111.2145958019884</v>
       </c>
       <c r="F25">
         <v>107.8057354170548</v>
@@ -897,13 +897,13 @@
         <v>2608</v>
       </c>
       <c r="C26">
-        <v>107.8085718915213</v>
+        <v>107.8053457681355</v>
       </c>
       <c r="D26">
-        <v>104.5194145789826</v>
+        <v>104.5161607013955</v>
       </c>
       <c r="E26">
-        <v>111.0977292040601</v>
+        <v>111.0945308348754</v>
       </c>
       <c r="F26">
         <v>108.059332421631</v>
@@ -917,13 +917,13 @@
         <v>2609</v>
       </c>
       <c r="C27">
-        <v>108.052477108737</v>
+        <v>108.0589530690725</v>
       </c>
       <c r="D27">
-        <v>104.7639364373278</v>
+        <v>104.7703840793149</v>
       </c>
       <c r="E27">
-        <v>111.3410177801461</v>
+        <v>111.3475220588301</v>
       </c>
       <c r="F27">
         <v>108.0476123707105</v>
@@ -937,13 +937,13 @@
         <v>2610</v>
       </c>
       <c r="C28">
-        <v>108.0473558978718</v>
+        <v>108.0472325221867</v>
       </c>
       <c r="D28">
-        <v>104.7594450557701</v>
+        <v>104.7592935530405</v>
       </c>
       <c r="E28">
-        <v>111.3352667399735</v>
+        <v>111.335171491333</v>
       </c>
       <c r="F28">
         <v>108.0385971835479</v>
@@ -957,13 +957,13 @@
         <v>2611</v>
       </c>
       <c r="C29">
-        <v>108.0384635338923</v>
+        <v>108.0382167609952</v>
       </c>
       <c r="D29">
-        <v>104.7511825630286</v>
+        <v>104.7509074619318</v>
       </c>
       <c r="E29">
-        <v>111.3257445047561</v>
+        <v>111.3255260600586</v>
       </c>
       <c r="F29">
         <v>108.1799525376512</v>
@@ -977,13 +977,13 @@
         <v>2612</v>
       </c>
       <c r="C30">
-        <v>108.1759290124074</v>
+        <v>108.1795672177861</v>
       </c>
       <c r="D30">
-        <v>104.8892728542667</v>
+        <v>104.892882713402</v>
       </c>
       <c r="E30">
-        <v>111.4625851705481</v>
+        <v>111.4662517221702</v>
       </c>
       <c r="F30">
         <v>108.0963623561719</v>
@@ -997,13 +997,13 @@
         <v>2613</v>
       </c>
       <c r="C31">
-        <v>108.0980633205157</v>
+        <v>108.0959831333638</v>
       </c>
       <c r="D31">
-        <v>104.8120347066567</v>
+        <v>104.8099261048859</v>
       </c>
       <c r="E31">
-        <v>111.3840919343746</v>
+        <v>111.3820401618418</v>
       </c>
       <c r="F31">
         <v>108.3570244587017</v>
@@ -1017,13 +1017,13 @@
         <v>2614</v>
       </c>
       <c r="C32">
-        <v>108.3498846971813</v>
+        <v>108.3566457074511</v>
       </c>
       <c r="D32">
-        <v>105.0644695659004</v>
+        <v>105.0712020611337</v>
       </c>
       <c r="E32">
-        <v>111.6352998284622</v>
+        <v>111.6420893537684</v>
       </c>
       <c r="F32">
         <v>108.5472533158853</v>
@@ -1037,13 +1037,13 @@
         <v>2615</v>
       </c>
       <c r="C33">
-        <v>108.54177248781</v>
+        <v>108.5468631173631</v>
       </c>
       <c r="D33">
-        <v>105.2569767102057</v>
+        <v>105.2620394962419</v>
       </c>
       <c r="E33">
-        <v>111.8265682654143</v>
+        <v>111.8316867384843</v>
       </c>
       <c r="F33">
         <v>108.0636234775259</v>
@@ -1057,13 +1057,13 @@
         <v>2616</v>
       </c>
       <c r="C34">
-        <v>108.0758534889011</v>
+        <v>108.0632433085385</v>
       </c>
       <c r="D34">
-        <v>104.7916348493052</v>
+        <v>104.7789954501301</v>
       </c>
       <c r="E34">
-        <v>111.3600721284971</v>
+        <v>111.347491166947</v>
       </c>
       <c r="F34">
         <v>107.7123554433952</v>
@@ -1077,13 +1077,13 @@
         <v>2617</v>
       </c>
       <c r="C35">
-        <v>107.7212204990095</v>
+        <v>107.7119752019826</v>
       </c>
       <c r="D35">
-        <v>104.4375998773812</v>
+        <v>104.4283273540775</v>
       </c>
       <c r="E35">
-        <v>111.0048411206379</v>
+        <v>110.9956230498877</v>
       </c>
       <c r="F35">
         <v>107.7339486501811</v>
@@ -1097,13 +1097,13 @@
         <v>2618</v>
       </c>
       <c r="C36">
-        <v>107.7332594921045</v>
+        <v>107.7335684134634</v>
       </c>
       <c r="D36">
-        <v>104.4502659838737</v>
+        <v>104.4505476473754</v>
       </c>
       <c r="E36">
-        <v>111.0162530003352</v>
+        <v>111.0165891795515</v>
       </c>
       <c r="F36">
         <v>107.7737716828174</v>
@@ -1117,13 +1117,13 @@
         <v>2619</v>
       </c>
       <c r="C37">
-        <v>107.7723787791484</v>
+        <v>107.7733918273738</v>
       </c>
       <c r="D37">
-        <v>104.4900117662866</v>
+        <v>104.4909975347043</v>
       </c>
       <c r="E37">
-        <v>111.0547457920102</v>
+        <v>111.0557861200432</v>
       </c>
       <c r="F37">
         <v>107.8526386940637</v>
@@ -1137,13 +1137,13 @@
         <v>2620</v>
       </c>
       <c r="C38">
-        <v>107.8502121682395</v>
+        <v>107.8522469326426</v>
       </c>
       <c r="D38">
-        <v>104.5684699584859</v>
+        <v>104.5704776002796</v>
       </c>
       <c r="E38">
-        <v>111.1319543779931</v>
+        <v>111.1340162650057</v>
       </c>
       <c r="F38">
         <v>107.7414146696451</v>
@@ -1157,13 +1157,13 @@
         <v>2621</v>
       </c>
       <c r="C39">
-        <v>107.7436662387976</v>
+        <v>107.7410331468388</v>
       </c>
       <c r="D39">
-        <v>104.4625462746811</v>
+        <v>104.4598872741595</v>
       </c>
       <c r="E39">
-        <v>111.0247862029141</v>
+        <v>111.0221790195181</v>
       </c>
       <c r="F39">
         <v>107.9143726825356</v>
@@ -1177,13 +1177,13 @@
         <v>2622</v>
       </c>
       <c r="C40">
-        <v>107.9096132217089</v>
+        <v>107.9139865332948</v>
       </c>
       <c r="D40">
-        <v>104.6291136197934</v>
+        <v>104.6334596686203</v>
       </c>
       <c r="E40">
-        <v>111.1901128236244</v>
+        <v>111.1945133979694</v>
       </c>
       <c r="F40">
         <v>107.6481288243948</v>
@@ -1197,13 +1197,13 @@
         <v>2623</v>
       </c>
       <c r="C41">
-        <v>107.6544942896499</v>
+        <v>107.6477498963144</v>
       </c>
       <c r="D41">
-        <v>104.3746050325918</v>
+        <v>104.3678327069973</v>
       </c>
       <c r="E41">
-        <v>110.9343835467079</v>
+        <v>110.9276670856314</v>
       </c>
       <c r="F41">
         <v>107.7636824627853</v>
@@ -1217,13 +1217,13 @@
         <v>2624</v>
       </c>
       <c r="C42">
-        <v>107.7604548758269</v>
+        <v>107.7633036172126</v>
       </c>
       <c r="D42">
-        <v>104.4811878895833</v>
+        <v>104.4840084759895</v>
       </c>
       <c r="E42">
-        <v>111.0397218620705</v>
+        <v>111.0425987584356</v>
       </c>
       <c r="F42">
         <v>107.457638815898</v>
@@ -1237,13 +1237,13 @@
         <v>2625</v>
       </c>
       <c r="C43">
-        <v>107.4651790596254</v>
+        <v>107.4572522407618</v>
       </c>
       <c r="D43">
-        <v>104.1865163744649</v>
+        <v>104.178560854655</v>
       </c>
       <c r="E43">
-        <v>110.7438417447859</v>
+        <v>110.7359436268685</v>
       </c>
       <c r="F43">
         <v>107.3655490205361</v>
@@ -1257,13 +1257,13 @@
         <v>2626</v>
       </c>
       <c r="C44">
-        <v>107.3677670223104</v>
+        <v>107.3651660171786</v>
       </c>
       <c r="D44">
-        <v>104.0897253568484</v>
+        <v>104.0870971182874</v>
       </c>
       <c r="E44">
-        <v>110.6458086877724</v>
+        <v>110.6432349160697</v>
       </c>
       <c r="F44">
         <v>107.2504314614516</v>
@@ -1277,13 +1277,13 @@
         <v>2627</v>
       </c>
       <c r="C45">
-        <v>107.2530088713971</v>
+        <v>107.2500499711065</v>
       </c>
       <c r="D45">
-        <v>103.9755884432121</v>
+        <v>103.97260212346</v>
       </c>
       <c r="E45">
-        <v>110.5304292995821</v>
+        <v>110.527497818753</v>
       </c>
       <c r="F45">
         <v>107.3259633810965</v>
@@ -1297,13 +1297,13 @@
         <v>2628</v>
       </c>
       <c r="C46">
-        <v>107.3236930216987</v>
+        <v>107.3255759714209</v>
       </c>
       <c r="D46">
-        <v>104.046895806689</v>
+        <v>104.0487504096608</v>
       </c>
       <c r="E46">
-        <v>110.6004902367084</v>
+        <v>110.602401533181</v>
       </c>
       <c r="F46">
         <v>107.5162303332636</v>
@@ -1317,13 +1317,13 @@
         <v>2629</v>
       </c>
       <c r="C47">
-        <v>107.5108844147312</v>
+        <v>107.5158501800827</v>
       </c>
       <c r="D47">
-        <v>104.234702288384</v>
+        <v>104.2396398515236</v>
       </c>
       <c r="E47">
-        <v>110.7870665410784</v>
+        <v>110.7920605086418</v>
       </c>
       <c r="F47">
         <v>107.6159701846544</v>
@@ -1337,13 +1337,13 @@
         <v>2630</v>
       </c>
       <c r="C48">
-        <v>107.6128838627251</v>
+        <v>107.6155909072426</v>
       </c>
       <c r="D48">
-        <v>104.3373220332899</v>
+        <v>104.3400012678124</v>
       </c>
       <c r="E48">
-        <v>110.8884456921602</v>
+        <v>110.8911805466728</v>
       </c>
       <c r="F48">
         <v>107.7947797083604</v>
@@ -1357,13 +1357,13 @@
         <v>2631</v>
       </c>
       <c r="C49">
-        <v>107.7896988416448</v>
+        <v>107.7944013112402</v>
       </c>
       <c r="D49">
-        <v>104.5147518171211</v>
+        <v>104.519427086135</v>
       </c>
       <c r="E49">
-        <v>111.0646458661684</v>
+        <v>111.0693755363453</v>
       </c>
       <c r="F49">
         <v>107.3644214731718</v>
@@ -1377,13 +1377,13 @@
         <v>2632</v>
       </c>
       <c r="C50">
-        <v>107.3751203462564</v>
+        <v>107.3640418559877</v>
       </c>
       <c r="D50">
-        <v>104.1007555253132</v>
+        <v>104.0896486044465</v>
       </c>
       <c r="E50">
-        <v>110.6494851671995</v>
+        <v>110.6384351075289</v>
       </c>
       <c r="F50">
         <v>107.7192676795798</v>
@@ -1397,13 +1397,13 @@
         <v>2633</v>
       </c>
       <c r="C51">
-        <v>107.709687561653</v>
+        <v>107.7188885522595</v>
       </c>
       <c r="D51">
-        <v>104.4359184432448</v>
+        <v>104.4450890563664</v>
       </c>
       <c r="E51">
-        <v>110.9834566800613</v>
+        <v>110.9926880481527</v>
       </c>
       <c r="F51">
         <v>107.756004745851</v>
@@ -1417,13 +1417,13 @@
         <v>2634</v>
       </c>
       <c r="C52">
-        <v>107.7543711025413</v>
+        <v>107.7556261520112</v>
       </c>
       <c r="D52">
-        <v>104.4812223841929</v>
+        <v>104.4824478644576</v>
       </c>
       <c r="E52">
-        <v>111.0275198208896</v>
+        <v>111.0288044395649</v>
       </c>
       <c r="F52">
         <v>107.8245052060877</v>
@@ -1437,13 +1437,13 @@
         <v>2635</v>
       </c>
       <c r="C53">
-        <v>107.822269368894</v>
+        <v>107.8241269481935</v>
       </c>
       <c r="D53">
-        <v>104.5497413384053</v>
+        <v>104.5515687645526</v>
       </c>
       <c r="E53">
-        <v>111.0947973993827</v>
+        <v>111.0966851318345</v>
       </c>
       <c r="F53">
         <v>108.0073951408327</v>
@@ -1457,13 +1457,13 @@
         <v>2636</v>
       </c>
       <c r="C54">
-        <v>108.0020921459622</v>
+        <v>108.0070169896517</v>
       </c>
       <c r="D54">
-        <v>104.7301772654582</v>
+        <v>104.7350721349778</v>
       </c>
       <c r="E54">
-        <v>111.2740070264662</v>
+        <v>111.2789618443257</v>
       </c>
       <c r="F54">
         <v>108.0654856662239</v>
@@ -1477,13 +1477,13 @@
         <v>2637</v>
       </c>
       <c r="C55">
-        <v>108.0634156640869</v>
+        <v>108.0651063674346</v>
       </c>
       <c r="D55">
-        <v>104.792120114602</v>
+        <v>104.7937811931299</v>
       </c>
       <c r="E55">
-        <v>111.3347112135717</v>
+        <v>111.3364315417393</v>
       </c>
       <c r="F55">
         <v>108.2103023314428</v>
@@ -1497,13 +1497,13 @@
         <v>2638</v>
       </c>
       <c r="C56">
-        <v>108.2059918477803</v>
+        <v>108.2099245101207</v>
       </c>
       <c r="D56">
-        <v>104.9353111249179</v>
+        <v>104.9392147587794</v>
       </c>
       <c r="E56">
-        <v>111.4766725706428</v>
+        <v>111.480634261462</v>
       </c>
       <c r="F56">
         <v>108.2718541112863</v>
@@ -1517,13 +1517,13 @@
         <v>2639</v>
       </c>
       <c r="C57">
-        <v>108.2697525636211</v>
+        <v>108.2714757730302</v>
       </c>
       <c r="D57">
-        <v>104.9996913674245</v>
+        <v>105.0013849112602</v>
       </c>
       <c r="E57">
-        <v>111.5398137598176</v>
+        <v>111.5415666348002</v>
       </c>
       <c r="F57">
         <v>108.4001635122105</v>
@@ -1537,13 +1537,13 @@
         <v>2640</v>
       </c>
       <c r="C58">
-        <v>108.3963574025249</v>
+        <v>108.399785414395</v>
       </c>
       <c r="D58">
-        <v>105.1269118157342</v>
+        <v>105.1303102678431</v>
       </c>
       <c r="E58">
-        <v>111.6658029893155</v>
+        <v>111.669260560947</v>
       </c>
       <c r="F58">
         <v>108.2430587757729</v>
@@ -1557,13 +1557,13 @@
         <v>2641</v>
       </c>
       <c r="C59">
-        <v>108.2467676739499</v>
+        <v>108.242680591712</v>
       </c>
       <c r="D59">
-        <v>104.9779358844992</v>
+        <v>104.9738190169816</v>
       </c>
       <c r="E59">
-        <v>111.5155994634006</v>
+        <v>111.5115421664424</v>
       </c>
       <c r="F59">
         <v>107.9994286546961</v>
@@ -1577,13 +1577,13 @@
         <v>2642</v>
       </c>
       <c r="C60">
-        <v>108.0055651627748</v>
+        <v>107.9990508547874</v>
       </c>
       <c r="D60">
-        <v>104.7373381748893</v>
+        <v>104.730794805434</v>
       </c>
       <c r="E60">
-        <v>111.2737921506602</v>
+        <v>111.2673069041408</v>
       </c>
       <c r="F60">
         <v>107.9106036012214</v>
@@ -1597,13 +1597,13 @@
         <v>2643</v>
       </c>
       <c r="C61">
-        <v>107.9127366821375</v>
+        <v>107.910223590733</v>
       </c>
       <c r="D61">
-        <v>104.6451263029849</v>
+        <v>104.6425841220012</v>
       </c>
       <c r="E61">
-        <v>111.1803470612902</v>
+        <v>111.1778630594647</v>
       </c>
       <c r="F61">
         <v>108.1072397744541</v>
@@ -1617,13 +1617,13 @@
         <v>2644</v>
       </c>
       <c r="C62">
-        <v>108.1017549959612</v>
+        <v>108.1068565339973</v>
       </c>
       <c r="D62">
-        <v>104.8347541649116</v>
+        <v>104.839826403723</v>
       </c>
       <c r="E62">
-        <v>111.3687558270109</v>
+        <v>111.3738866642716</v>
       </c>
       <c r="F62">
         <v>108.0628798014322</v>
@@ -1637,13 +1637,13 @@
         <v>2645</v>
       </c>
       <c r="C63">
-        <v>108.0635018179032</v>
+        <v>108.0625015938352</v>
       </c>
       <c r="D63">
-        <v>104.7971178961429</v>
+        <v>104.7960887232973</v>
       </c>
       <c r="E63">
-        <v>111.3298857396635</v>
+        <v>111.328914464373</v>
       </c>
       <c r="F63">
         <v>108.354440360781</v>
@@ -1657,13 +1657,13 @@
         <v>2646</v>
       </c>
       <c r="C64">
-        <v>108.3463947269265</v>
+        <v>108.3540632280324</v>
       </c>
       <c r="D64">
-        <v>105.0806097214463</v>
+        <v>105.0882487268757</v>
       </c>
       <c r="E64">
-        <v>111.6121797324068</v>
+        <v>111.6198777291891</v>
       </c>
       <c r="F64">
         <v>108.5824017286817</v>
@@ -1677,13 +1677,13 @@
         <v>2647</v>
       </c>
       <c r="C65">
-        <v>108.575887316188</v>
+        <v>108.5820244642614</v>
       </c>
       <c r="D65">
-        <v>105.3107068217416</v>
+        <v>105.316815330283</v>
       </c>
       <c r="E65">
-        <v>111.8410678106344</v>
+        <v>111.8472335982398</v>
       </c>
       <c r="F65">
         <v>108.4011471780334</v>
@@ -1697,13 +1697,13 @@
         <v>2648</v>
       </c>
       <c r="C66">
-        <v>108.4053756888716</v>
+        <v>108.4007694271788</v>
       </c>
       <c r="D66">
-        <v>105.1408050619136</v>
+        <v>105.1361696139692</v>
       </c>
       <c r="E66">
-        <v>111.6699463158296</v>
+        <v>111.6653692403883</v>
       </c>
       <c r="F66">
         <v>108.263675909386</v>
@@ -1717,13 +1717,13 @@
         <v>2649</v>
       </c>
       <c r="C67">
-        <v>108.2670235145556</v>
+        <v>108.2632869754267</v>
       </c>
       <c r="D67">
-        <v>105.0030646500481</v>
+        <v>104.9992991307697</v>
       </c>
       <c r="E67">
-        <v>111.530982379063</v>
+        <v>111.5272748200838</v>
       </c>
       <c r="F67">
         <v>107.9765906267739</v>
@@ -1737,13 +1737,13 @@
         <v>2650</v>
       </c>
       <c r="C68">
-        <v>107.9837445144947</v>
+        <v>107.9762050485405</v>
       </c>
       <c r="D68">
-        <v>104.7203826763777</v>
+        <v>104.7128148739638</v>
       </c>
       <c r="E68">
-        <v>111.2471063526116</v>
+        <v>111.2395952231173</v>
       </c>
       <c r="F68">
         <v>107.8687485338478</v>
@@ -1757,13 +1757,13 @@
         <v>2651</v>
       </c>
       <c r="C69">
-        <v>107.8713085418341</v>
+        <v>107.8683664764255</v>
       </c>
       <c r="D69">
-        <v>104.6085590757777</v>
+        <v>104.605589326324</v>
       </c>
       <c r="E69">
-        <v>111.1340580078906</v>
+        <v>111.1311436265271</v>
       </c>
       <c r="F69">
         <v>108.0451374293105</v>
@@ -1777,13 +1777,13 @@
         <v>2652</v>
       </c>
       <c r="C70">
-        <v>108.0402593548399</v>
+        <v>108.0447512144522</v>
       </c>
       <c r="D70">
-        <v>104.7781185377907</v>
+        <v>104.7825823058144</v>
       </c>
       <c r="E70">
-        <v>111.3024001718891</v>
+        <v>111.30692012309</v>
       </c>
       <c r="F70">
         <v>107.8126773565762</v>
@@ -1797,13 +1797,13 @@
         <v>2653</v>
       </c>
       <c r="C71">
-        <v>107.8182505128066</v>
+        <v>107.812291977856</v>
       </c>
       <c r="D71">
-        <v>104.5567131433865</v>
+        <v>104.5507259791549</v>
       </c>
       <c r="E71">
-        <v>111.0797878822267</v>
+        <v>111.0738579765572</v>
       </c>
       <c r="F71">
         <v>107.8491815353901</v>
@@ -1817,13 +1817,13 @@
         <v>2654</v>
       </c>
       <c r="C72">
-        <v>107.8479103792424</v>
+        <v>107.8488000452974</v>
       </c>
       <c r="D72">
-        <v>104.5869864444357</v>
+        <v>104.587848301754</v>
       </c>
       <c r="E72">
-        <v>111.1088343140491</v>
+        <v>111.1097517888408</v>
       </c>
       <c r="F72">
         <v>107.5265190674777</v>
@@ -1837,13 +1837,13 @@
         <v>2655</v>
       </c>
       <c r="C73">
-        <v>107.5345721472299</v>
+        <v>107.5261366406822</v>
       </c>
       <c r="D73">
-        <v>104.2742404665246</v>
+        <v>104.2657760038639</v>
       </c>
       <c r="E73">
-        <v>110.7949038279351</v>
+        <v>110.7864972775005</v>
       </c>
       <c r="F73">
         <v>107.5168215454997</v>
@@ -1857,13 +1857,13 @@
         <v>2656</v>
       </c>
       <c r="C74">
-        <v>107.5169016845021</v>
+        <v>107.516420050634</v>
       </c>
       <c r="D74">
-        <v>104.2571835423026</v>
+        <v>104.2566730514983</v>
       </c>
       <c r="E74">
-        <v>110.7766198267015</v>
+        <v>110.7761670497697</v>
       </c>
       <c r="F74">
         <v>107.4531093910239</v>
@@ -1877,13 +1877,13 @@
         <v>2657</v>
       </c>
       <c r="C75">
-        <v>107.4544012668277</v>
+        <v>107.4527249018057</v>
       </c>
       <c r="D75">
-        <v>104.1952958354265</v>
+        <v>104.1935906495052</v>
       </c>
       <c r="E75">
-        <v>110.7135066982289</v>
+        <v>110.7118591541063</v>
       </c>
       <c r="F75">
         <v>107.1098452873245</v>
@@ -1897,13 +1897,13 @@
         <v>2658</v>
       </c>
       <c r="C76">
-        <v>107.1184492615755</v>
+        <v>107.1094676874083</v>
       </c>
       <c r="D76">
-        <v>103.8599306955442</v>
+        <v>103.8509205506617</v>
       </c>
       <c r="E76">
-        <v>110.3769678276069</v>
+        <v>110.3680148241549</v>
       </c>
       <c r="F76">
         <v>106.6337710333511</v>
@@ -1917,13 +1917,13 @@
         <v>2659</v>
       </c>
       <c r="C77">
-        <v>106.6454920141017</v>
+        <v>106.6333834031277</v>
       </c>
       <c r="D77">
-        <v>103.387533432802</v>
+        <v>103.3753987867506</v>
       </c>
       <c r="E77">
-        <v>109.9034505954014</v>
+        <v>109.8913680195047</v>
       </c>
       <c r="F77">
         <v>107.0018629415374</v>
@@ -1937,13 +1937,13 @@
         <v>2660</v>
       </c>
       <c r="C78">
-        <v>106.9922387413155</v>
+        <v>107.0014758875179</v>
       </c>
       <c r="D78">
-        <v>103.7348652211427</v>
+        <v>103.7440736494489</v>
       </c>
       <c r="E78">
-        <v>110.2496122614883</v>
+        <v>110.2588781255869</v>
       </c>
       <c r="F78">
         <v>106.948081041117</v>
@@ -1957,13 +1957,13 @@
         <v>2661</v>
       </c>
       <c r="C79">
-        <v>106.9488636571033</v>
+        <v>106.9476981463663</v>
       </c>
       <c r="D79">
-        <v>103.6921016948157</v>
+        <v>103.6909074326251</v>
       </c>
       <c r="E79">
-        <v>110.205625619391</v>
+        <v>110.2044888601076</v>
       </c>
       <c r="F79">
         <v>107.4443922274405</v>
@@ -1977,13 +1977,13 @@
         <v>2662</v>
       </c>
       <c r="C80">
-        <v>107.4310415583705</v>
+        <v>107.4440123629395</v>
       </c>
       <c r="D80">
-        <v>104.174837138323</v>
+        <v>104.1877787999996</v>
       </c>
       <c r="E80">
-        <v>110.687245978418</v>
+        <v>110.7002459258794</v>
       </c>
       <c r="F80">
         <v>107.5681188917708</v>
@@ -1997,13 +1997,13 @@
         <v>2663</v>
       </c>
       <c r="C81">
-        <v>107.5642176949614</v>
+        <v>107.5677360356662</v>
       </c>
       <c r="D81">
-        <v>104.3086205284799</v>
+        <v>104.3121104789382</v>
       </c>
       <c r="E81">
-        <v>110.8198148614429</v>
+        <v>110.8233615923942</v>
       </c>
       <c r="F81">
         <v>107.9278106254686</v>
@@ -2017,13 +2017,13 @@
         <v>2664</v>
       </c>
       <c r="C82">
-        <v>107.9181457073957</v>
+        <v>107.9274278596434</v>
       </c>
       <c r="D82">
-        <v>104.6631302898725</v>
+        <v>104.6723846941444</v>
       </c>
       <c r="E82">
-        <v>111.1731611249189</v>
+        <v>111.1824710251425</v>
       </c>
       <c r="F82">
         <v>107.8132810680382</v>
@@ -2037,13 +2037,13 @@
         <v>2665</v>
       </c>
       <c r="C83">
-        <v>107.8156243531655</v>
+        <v>107.8129025895041</v>
       </c>
       <c r="D83">
-        <v>104.5612173558036</v>
+        <v>104.5584673335455</v>
       </c>
       <c r="E83">
-        <v>111.0700313505274</v>
+        <v>111.0673378454627</v>
       </c>
       <c r="F83">
         <v>107.3871818200133</v>
@@ -2057,13 +2057,13 @@
         <v>2666</v>
       </c>
       <c r="C84">
-        <v>107.3977689963423</v>
+        <v>107.3867945897787</v>
       </c>
       <c r="D84">
-        <v>104.1439316448209</v>
+        <v>104.1329295273959</v>
       </c>
       <c r="E84">
-        <v>110.6516063478637</v>
+        <v>110.6406596521614</v>
       </c>
       <c r="F84">
         <v>107.6354255917594</v>
@@ -2077,13 +2077,13 @@
         <v>2667</v>
       </c>
       <c r="C85">
-        <v>107.6288093236076</v>
+        <v>107.6350424074443</v>
       </c>
       <c r="D85">
-        <v>104.3755688466569</v>
+        <v>104.3817737854877</v>
       </c>
       <c r="E85">
-        <v>110.8820498005582</v>
+        <v>110.888311029401</v>
       </c>
       <c r="F85">
         <v>107.6366954721554</v>
@@ -2097,13 +2097,13 @@
         <v>2668</v>
       </c>
       <c r="C86">
-        <v>107.6361194086279</v>
+        <v>107.6362936972603</v>
       </c>
       <c r="D86">
-        <v>104.3834893613313</v>
+        <v>104.3836346455943</v>
       </c>
       <c r="E86">
-        <v>110.8887494559245</v>
+        <v>110.8889527489262</v>
       </c>
       <c r="F86">
         <v>107.237163720458</v>
@@ -2117,13 +2117,13 @@
         <v>2669</v>
       </c>
       <c r="C87">
-        <v>107.2472284062504</v>
+        <v>107.2367801393023</v>
       </c>
       <c r="D87">
-        <v>103.9951726298966</v>
+        <v>103.9846953812858</v>
       </c>
       <c r="E87">
-        <v>110.4992841826041</v>
+        <v>110.4888648973188</v>
       </c>
       <c r="F87">
         <v>107.1240340891862</v>
@@ -2137,13 +2137,13 @@
         <v>2670</v>
       </c>
       <c r="C88">
-        <v>107.126859457891</v>
+        <v>107.1236523672386</v>
       </c>
       <c r="D88">
-        <v>103.8754093686198</v>
+        <v>103.8721738713525</v>
       </c>
       <c r="E88">
-        <v>110.3783095471622</v>
+        <v>110.3751308631248</v>
       </c>
       <c r="F88">
         <v>106.9513378693441</v>
@@ -2157,13 +2157,13 @@
         <v>2671</v>
       </c>
       <c r="C89">
-        <v>106.9554615084172</v>
+        <v>106.9509372327045</v>
       </c>
       <c r="D89">
-        <v>103.704613058324</v>
+        <v>103.7000607156731</v>
       </c>
       <c r="E89">
-        <v>110.2063099585103</v>
+        <v>110.2018137497359</v>
       </c>
       <c r="F89">
         <v>106.9932000849413</v>
@@ -2177,13 +2177,13 @@
         <v>2672</v>
       </c>
       <c r="C90">
-        <v>106.9918522642316</v>
+        <v>106.9928152689082</v>
       </c>
       <c r="D90">
-        <v>103.7416119822299</v>
+        <v>103.7425468782239</v>
       </c>
       <c r="E90">
-        <v>110.2420925462333</v>
+        <v>110.2430836595924</v>
       </c>
       <c r="F90">
         <v>107.1310262841983</v>
@@ -2197,13 +2197,13 @@
         <v>2673</v>
       </c>
       <c r="C91">
-        <v>107.1270697374647</v>
+        <v>107.130642772914</v>
       </c>
       <c r="D91">
-        <v>103.8774315605118</v>
+        <v>103.8809782124543</v>
       </c>
       <c r="E91">
-        <v>110.3767079144176</v>
+        <v>110.3803073333737</v>
       </c>
       <c r="F91">
         <v>106.6843869380756</v>
@@ -2217,13 +2217,13 @@
         <v>2674</v>
       </c>
       <c r="C92">
-        <v>106.6957262378372</v>
+        <v>106.6840059851869</v>
       </c>
       <c r="D92">
-        <v>103.4466539109029</v>
+        <v>103.4349051030996</v>
       </c>
       <c r="E92">
-        <v>109.9447985647714</v>
+        <v>109.9331068672743</v>
       </c>
       <c r="F92">
         <v>106.9460920495128</v>
@@ -2237,13 +2237,13 @@
         <v>2675</v>
       </c>
       <c r="C93">
-        <v>106.9390611024989</v>
+        <v>106.9457064020356</v>
       </c>
       <c r="D93">
-        <v>103.6905825495317</v>
+        <v>103.6971976688521</v>
       </c>
       <c r="E93">
-        <v>110.1875396554661</v>
+        <v>110.1942151352191</v>
       </c>
       <c r="F93">
         <v>106.7485489089128</v>
@@ -2257,13 +2257,13 @@
         <v>2676</v>
       </c>
       <c r="C94">
-        <v>106.7533047443773</v>
+        <v>106.7481646625328</v>
       </c>
       <c r="D94">
-        <v>103.5054252083326</v>
+        <v>103.5002543725805</v>
       </c>
       <c r="E94">
-        <v>110.001184280422</v>
+        <v>109.9960749524852</v>
       </c>
       <c r="F94">
         <v>106.8572665248737</v>
@@ -2277,13 +2277,13 @@
         <v>2677</v>
       </c>
       <c r="C95">
-        <v>106.8541019323796</v>
+        <v>106.8568826888616</v>
       </c>
       <c r="D95">
-        <v>103.6068266948066</v>
+        <v>103.6095764649946</v>
       </c>
       <c r="E95">
-        <v>110.1013771699527</v>
+        <v>110.1041889127286</v>
       </c>
       <c r="F95">
         <v>107.3495879765502</v>
@@ -2297,13 +2297,13 @@
         <v>2678</v>
       </c>
       <c r="C96">
-        <v>107.3359379392366</v>
+        <v>107.3492056623953</v>
       </c>
       <c r="D96">
-        <v>104.0892146027994</v>
+        <v>104.1024521887822</v>
       </c>
       <c r="E96">
-        <v>110.5826612756737</v>
+        <v>110.5959591360084</v>
       </c>
       <c r="F96">
         <v>107.5768082185559</v>
@@ -2317,13 +2317,13 @@
         <v>2679</v>
       </c>
       <c r="C97">
-        <v>107.5701575177065</v>
+        <v>107.576424579207</v>
       </c>
       <c r="D97">
-        <v>104.3240275214952</v>
+        <v>104.3302656793636</v>
       </c>
       <c r="E97">
-        <v>110.8162875139178</v>
+        <v>110.8225834790505</v>
       </c>
       <c r="F97">
         <v>108.0641262834832</v>
@@ -2337,13 +2337,13 @@
         <v>2680</v>
       </c>
       <c r="C98">
-        <v>108.0511923239739</v>
+        <v>108.0637407621462</v>
       </c>
       <c r="D98">
-        <v>104.8056143009548</v>
+        <v>104.81813501943</v>
       </c>
       <c r="E98">
-        <v>111.296770346993</v>
+        <v>111.3093465048624</v>
       </c>
       <c r="F98">
         <v>107.7848794131744</v>
@@ -2357,13 +2357,13 @@
         <v>2681</v>
       </c>
       <c r="C99">
-        <v>107.7914414487166</v>
+        <v>107.784493334202</v>
       </c>
       <c r="D99">
-        <v>104.546452983153</v>
+        <v>104.5394757623131</v>
       </c>
       <c r="E99">
-        <v>111.0364299142802</v>
+        <v>111.0295109060908</v>
       </c>
       <c r="F99">
         <v>107.7170029038061</v>
@@ -2377,13 +2377,13 @@
         <v>2682</v>
       </c>
       <c r="C100">
-        <v>107.7185683249498</v>
+        <v>107.7166205188106</v>
       </c>
       <c r="D100">
-        <v>104.4741837065017</v>
+        <v>104.4722069915216</v>
       </c>
       <c r="E100">
-        <v>110.9629529433978</v>
+        <v>110.9610340460996</v>
       </c>
       <c r="F100">
         <v>108.0246704433067</v>
@@ -2397,13 +2397,13 @@
         <v>2683</v>
       </c>
       <c r="C101">
-        <v>108.0162854015825</v>
+        <v>108.0242867340032</v>
       </c>
       <c r="D101">
-        <v>104.7724847234763</v>
+        <v>104.7804569417461</v>
       </c>
       <c r="E101">
-        <v>111.2600860796886</v>
+        <v>111.2681165262603</v>
       </c>
       <c r="F101">
         <v>107.97472745815</v>
@@ -2417,13 +2417,13 @@
         <v>2684</v>
       </c>
       <c r="C102">
-        <v>107.9754533142574</v>
+        <v>107.9743476510374</v>
       </c>
       <c r="D102">
-        <v>104.7322566943241</v>
+        <v>104.7311216975342</v>
       </c>
       <c r="E102">
-        <v>111.2186499341906</v>
+        <v>111.2175736045407</v>
       </c>
       <c r="F102">
         <v>107.9855728440585</v>
@@ -2437,13 +2437,13 @@
         <v>2685</v>
       </c>
       <c r="C103">
-        <v>107.9849256319301</v>
+        <v>107.9851892192226</v>
       </c>
       <c r="D103">
-        <v>104.7423328099329</v>
+        <v>104.7425672121205</v>
       </c>
       <c r="E103">
-        <v>111.2275184539272</v>
+        <v>111.2278112263248</v>
       </c>
       <c r="F103">
         <v>108.0561471363922</v>
@@ -2457,13 +2457,13 @@
         <v>2686</v>
       </c>
       <c r="C104">
-        <v>108.0539204999473</v>
+        <v>108.0557684419415</v>
       </c>
       <c r="D104">
-        <v>104.8119304610925</v>
+        <v>104.8137490435691</v>
       </c>
       <c r="E104">
-        <v>111.2959105388021</v>
+        <v>111.2977878403139</v>
       </c>
       <c r="F104">
         <v>108.574078048281</v>
@@ -2477,13 +2477,13 @@
         <v>2687</v>
       </c>
       <c r="C105">
-        <v>108.5601675559421</v>
+        <v>108.5736999965569</v>
       </c>
       <c r="D105">
-        <v>105.3187211826068</v>
+        <v>105.3322247106971</v>
       </c>
       <c r="E105">
-        <v>111.8016139292773</v>
+        <v>111.8151752824166</v>
       </c>
       <c r="F105">
         <v>108.514758925895</v>
@@ -2497,13 +2497,13 @@
         <v>2688</v>
       </c>
       <c r="C106">
-        <v>108.515587899843</v>
+        <v>108.5143808476147</v>
       </c>
       <c r="D106">
-        <v>105.2747440905674</v>
+        <v>105.2735078026554</v>
       </c>
       <c r="E106">
-        <v>111.7564317091186</v>
+        <v>111.755253892574</v>
       </c>
       <c r="F106">
         <v>108.61476460728</v>
@@ -2517,13 +2517,13 @@
         <v>2689</v>
       </c>
       <c r="C107">
-        <v>108.6118153564568</v>
+        <v>108.614386012156</v>
       </c>
       <c r="D107">
-        <v>105.3715720553644</v>
+        <v>105.3741134169787</v>
       </c>
       <c r="E107">
-        <v>111.8520586575492</v>
+        <v>111.8546586073334</v>
       </c>
       <c r="F107">
         <v>108.492072084689</v>
@@ -2537,13 +2537,13 @@
         <v>2690</v>
       </c>
       <c r="C108">
-        <v>108.4948538063747</v>
+        <v>108.491683931002</v>
       </c>
       <c r="D108">
-        <v>105.2552096330392</v>
+        <v>105.2520102820068</v>
       </c>
       <c r="E108">
-        <v>111.7344979797102</v>
+        <v>111.7313575799973</v>
       </c>
       <c r="F108">
         <v>108.4709168863726</v>
@@ -2557,13 +2557,13 @@
         <v>2691</v>
       </c>
       <c r="C109">
-        <v>108.4711761726267</v>
+        <v>108.4705391960141</v>
       </c>
       <c r="D109">
-        <v>105.2321337989442</v>
+        <v>105.2314675511118</v>
       </c>
       <c r="E109">
-        <v>111.7102185463092</v>
+        <v>111.7096108409165</v>
       </c>
       <c r="F109">
         <v>108.5318427447279</v>
@@ -2577,13 +2577,13 @@
         <v>2692</v>
       </c>
       <c r="C110">
-        <v>108.5298907547106</v>
+        <v>108.5314658590556</v>
       </c>
       <c r="D110">
-        <v>105.2914493166415</v>
+        <v>105.292995062175</v>
       </c>
       <c r="E110">
-        <v>111.7683321927796</v>
+        <v>111.7699366559361</v>
       </c>
       <c r="F110">
         <v>108.6397819373572</v>
@@ -2597,13 +2597,13 @@
         <v>2693</v>
       </c>
       <c r="C111">
-        <v>108.6365388189705</v>
+        <v>108.6394048892395</v>
       </c>
       <c r="D111">
-        <v>105.3986960635171</v>
+        <v>105.4015328413879</v>
       </c>
       <c r="E111">
-        <v>111.874381574424</v>
+        <v>111.8772769370911</v>
       </c>
       <c r="F111">
         <v>108.5292538476748</v>
@@ -2617,13 +2617,13 @@
         <v>2694</v>
       </c>
       <c r="C112">
-        <v>108.5317171130858</v>
+        <v>108.5288729712789</v>
       </c>
       <c r="D112">
-        <v>105.2944728084292</v>
+        <v>105.2915992088418</v>
       </c>
       <c r="E112">
-        <v>111.7689614177424</v>
+        <v>111.7661467337161</v>
       </c>
       <c r="F112">
         <v>108.5047714775309</v>
@@ -2637,13 +2637,13 @@
         <v>2695</v>
       </c>
       <c r="C113">
-        <v>108.5050949129765</v>
+        <v>108.5043925476133</v>
       </c>
       <c r="D113">
-        <v>105.2684508570518</v>
+        <v>105.2677193377712</v>
       </c>
       <c r="E113">
-        <v>111.7417389689013</v>
+        <v>111.7410657574555</v>
       </c>
       <c r="F113">
         <v>108.4503477864179</v>
@@ -2657,13 +2657,13 @@
         <v>2696</v>
       </c>
       <c r="C114">
-        <v>108.4514275367589</v>
+        <v>108.4489855208917</v>
       </c>
       <c r="D114">
-        <v>105.2153833985867</v>
+        <v>105.2129023378675</v>
       </c>
       <c r="E114">
-        <v>111.6874716749311</v>
+        <v>111.6850687039159</v>
       </c>
       <c r="F114">
         <v>108.5536713475099</v>
@@ -2677,13 +2677,13 @@
         <v>2697</v>
       </c>
       <c r="C115">
-        <v>108.550621478002</v>
+        <v>108.5532950128664</v>
       </c>
       <c r="D115">
-        <v>105.3151749858333</v>
+        <v>105.317819142637</v>
       </c>
       <c r="E115">
-        <v>111.7860679701706</v>
+        <v>111.7887708830957</v>
       </c>
       <c r="F115">
         <v>108.5191850428846</v>
@@ -2697,13 +2697,13 @@
         <v>2698</v>
       </c>
       <c r="C116">
-        <v>108.5196576450185</v>
+        <v>108.5188072294382</v>
       </c>
       <c r="D116">
-        <v>105.2848105521621</v>
+        <v>105.2839307501202</v>
       </c>
       <c r="E116">
-        <v>111.754504737875</v>
+        <v>111.7536837087561</v>
       </c>
       <c r="F116">
         <v>108.3940550368578</v>
@@ -2717,13 +2717,13 @@
         <v>2699</v>
       </c>
       <c r="C117">
-        <v>108.3969975166005</v>
+        <v>108.3936788806572</v>
       </c>
       <c r="D117">
-        <v>105.1627463571078</v>
+        <v>105.1593983168721</v>
       </c>
       <c r="E117">
-        <v>111.6312486760932</v>
+        <v>111.6279594444423</v>
       </c>
       <c r="F117">
         <v>108.1068903295068</v>
@@ -2737,13 +2737,13 @@
         <v>2700</v>
       </c>
       <c r="C118">
-        <v>108.1142981853646</v>
+        <v>108.1065080564587</v>
       </c>
       <c r="D118">
-        <v>104.880627593615</v>
+        <v>104.872808329129</v>
       </c>
       <c r="E118">
-        <v>111.3479687771141</v>
+        <v>111.3402077837883</v>
       </c>
       <c r="F118">
         <v>108.5281490985053</v>
@@ -2757,13 +2757,13 @@
         <v>2701</v>
       </c>
       <c r="C119">
-        <v>108.5167499199013</v>
+        <v>108.5277711022559</v>
       </c>
       <c r="D119">
-        <v>105.2836400723487</v>
+        <v>105.2946309918346</v>
       </c>
       <c r="E119">
-        <v>111.7498597674538</v>
+        <v>111.7609112126772</v>
       </c>
       <c r="F119">
         <v>108.1591662787111</v>
@@ -2777,13 +2777,13 @@
         <v>2702</v>
       </c>
       <c r="C120">
-        <v>108.1686227471431</v>
+        <v>108.1587761978746</v>
       </c>
       <c r="D120">
-        <v>104.9360832731064</v>
+        <v>104.9262044265038</v>
       </c>
       <c r="E120">
-        <v>111.4011622211798</v>
+        <v>111.3913479692454</v>
       </c>
       <c r="F120">
         <v>107.8080554884414</v>
@@ -2797,13 +2797,13 @@
         <v>2703</v>
       </c>
       <c r="C121">
-        <v>107.8173528787931</v>
+        <v>107.8076777770264</v>
       </c>
       <c r="D121">
-        <v>104.5853828228568</v>
+        <v>104.5756770768642</v>
       </c>
       <c r="E121">
-        <v>111.0493229347295</v>
+        <v>111.0396784771886</v>
       </c>
       <c r="F121">
         <v>108.1170270374627</v>
@@ -2817,13 +2817,13 @@
         <v>2704</v>
       </c>
       <c r="C122">
-        <v>108.1084673771788</v>
+        <v>108.116649855732</v>
       </c>
       <c r="D122">
-        <v>104.8770752993174</v>
+        <v>104.8852258220658</v>
       </c>
       <c r="E122">
-        <v>111.3398594550403</v>
+        <v>111.3480738893982</v>
       </c>
       <c r="F122">
         <v>108.1499164141506</v>
@@ -2837,13 +2837,13 @@
         <v>2705</v>
       </c>
       <c r="C123">
-        <v>108.1484066744579</v>
+        <v>108.1495378643135</v>
       </c>
       <c r="D123">
-        <v>104.9176113861117</v>
+        <v>104.918710936823</v>
       </c>
       <c r="E123">
-        <v>111.3792019628041</v>
+        <v>111.380364791804</v>
       </c>
       <c r="F123">
         <v>108.2021984859012</v>
@@ -2857,13 +2857,13 @@
         <v>2706</v>
       </c>
       <c r="C124">
-        <v>108.2003679469687</v>
+        <v>108.2018218909462</v>
       </c>
       <c r="D124">
-        <v>104.9701692432323</v>
+        <v>104.9715914036322</v>
       </c>
       <c r="E124">
-        <v>111.430566650705</v>
+        <v>111.4320523782602</v>
       </c>
       <c r="F124">
         <v>108.0499913929291</v>
@@ -2877,13 +2877,13 @@
         <v>2707</v>
       </c>
       <c r="C125">
-        <v>108.0537458142429</v>
+        <v>108.0496147024061</v>
       </c>
       <c r="D125">
-        <v>104.8241388043919</v>
+        <v>104.8199758436921</v>
       </c>
       <c r="E125">
-        <v>111.2833528240939</v>
+        <v>111.2792535611201</v>
       </c>
       <c r="F125">
         <v>108.2301082192647</v>
@@ -2897,13 +2897,13 @@
         <v>2708</v>
       </c>
       <c r="C126">
-        <v>108.2248954558124</v>
+        <v>108.2297314300579</v>
       </c>
       <c r="D126">
-        <v>104.9958780025711</v>
+        <v>105.0006817895049</v>
       </c>
       <c r="E126">
-        <v>111.4539129090538</v>
+        <v>111.458781070611</v>
       </c>
       <c r="F126">
         <v>108.0962036684409</v>
